--- a/扩增正文审核辅助工具-20240312/工作簿115.xlsx
+++ b/扩增正文审核辅助工具-20240312/工作簿115.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>序号</t>
   </si>
@@ -61,36 +61,33 @@
     <t>模块9</t>
   </si>
   <si>
-    <t>XQ-QLXY-505-B</t>
-  </si>
-  <si>
-    <t>慢性前列腺炎会传染吗</t>
-  </si>
-  <si>
-    <t>XQ-QLXY-505</t>
-  </si>
-  <si>
-    <t>慢性前列腺炎是前列腺炎的一种，一般没有传染性，该病主要与性生活不规律、高危性行为、不良生活方式等因素有关。</t>
-  </si>
-  <si>
-    <t>慢性前列腺炎是前列腺炎的一种，一般没有传染性，该病主要与性生活不规律、高危性行为、不良生活方式等因素有关。远离这些因素，养成良好的生活习惯，健康的生活方式是健康最有力的保障。
-一、性生活不规律。性生活不规律容易诱发慢性前列腺炎，纵欲会导致过度分泌前列腺液，禁欲会导致分泌的前列腺液得不到释放。前列腺液正常的生产和排泄出现紊乱，就容易诱发慢性前列腺炎。
-二、高危性行为。高危性行为是慢性前列腺炎的诱发因素，在性生活中不戴安全套，各种病原体就有机会进入前列腺，可诱发前列腺炎，增加慢性前列腺炎的发病几率。
-三、不良生活方式。慢性前列腺炎可能与不良生活方式有关，久坐压迫前列腺，就容易导致慢性前列腺炎。前列腺长期受压迫，容易造成血流不畅，酸性物质增多，血管通透性增加，白细胞穿过血管进入前列腺的组织里，最终导致慢性前列腺炎的发生。
-另外，这里还可以补充一下需要注意的内容。
-规律性生活能预防慢性前列腺炎，过度手淫、性生活过频，在性兴奋的频繁刺激下容易导致前列腺反复充血。血管里的血液充盈，回流变慢，血流不畅，可能引起前列腺炎。性生活要规律，既不要纵欲，也不要禁欲，记得戴安全套。
-养成健康生活习惯有助于预防慢性前列腺炎，长期憋尿，充盈膨大的膀胱就会压迫到前列腺，造成血流不畅，最终引起前列腺炎。另外，尿道中的细菌得不到及时冲洗，就会进入前列腺中，诱发炎症。所以一定不要憋尿。最好每坐1-2个小时，就起身活动5-10分钟。</t>
-  </si>
-  <si>
-    <r>
-      <t>慢性前列腺炎是前列腺炎的一种，一般没有传染性，该病主要与性生活不规律、高危性行为、不良生活方式等因素有关。慢性前列腺炎的诱发因素包括性生活不规律、高危性行为、不良生活方式等。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="0"/>
+    <t>XQ-DN-151-A</t>
+  </si>
+  <si>
+    <t>多囊卵巢综合征的患者孕前该怎么调理</t>
+  </si>
+  <si>
+    <t>XQ-DN-151</t>
+  </si>
+  <si>
+    <t>多囊卵巢综合征的患者孕前可通过规律运动、合理饮食和养成良好的生活习惯等方法进行调理。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>多囊卵巢综合征的患者孕前可通过规律运动、合理饮食和养成良好的生活习惯等方法进行调理。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -99,17 +96,17 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
-        <rFont val="宋体-简"/>
-        <charset val="0"/>
-      </rPr>
-      <t>远离这些因素，养成良好的生活习惯，健康的生活方式是健康最有力的保障。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>一、适当运动有助于改善多囊卵巢综合征，如散步、慢跑、游泳、健身操等运动，避免过激，建议每周坚持三次到五次运动。适当运动有助于帮助患者减轻体重，控制胰岛素抵抗的发展，改善月经不调以及不孕，有助于多囊卵巢综合征的治疗。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -118,17 +115,17 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
-        <rFont val="宋体-简"/>
-        <charset val="0"/>
-      </rPr>
-      <t>一、性生活不规律。性生活不规律容易诱发慢性前列腺炎，纵欲会导致过度分泌前列腺液，禁欲会导致分泌的前列腺液得不到释放。前列腺液正常的生产和排泄出现紊乱，就容易诱发慢性前列腺炎。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>二、多囊卵巢综合征患者需要注意合理饮食，饮食方面要做到合理安排，清淡为主，避免肥胖，控制体重，多吃蔬菜水果，比如:白菜、菠菜、芹菜、海带、豆腐、橙子、苹果、猕猴桃等。适当补充矿物质以及维生素丰富的食物，如核桃、大枣、贝类、海鲜等。合理饮食能提高抵抗力，可加快多囊卵巢综合征的好转。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -137,17 +134,17 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
-        <rFont val="宋体-简"/>
-        <charset val="0"/>
-      </rPr>
-      <t>二、高危性行为。高危性行为是慢性前列腺炎的诱发因素，在性生活中不戴安全套，各种病原体就有机会进入前列腺，可诱发前列腺炎，增加慢性前列腺炎的发病几率。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>三、良好生活习惯能缓解多囊卵巢综合征，经常性的睡眠不充足、过度疲劳，容易内分泌紊乱，导致雄激素升高，诱发多囊卵巢综合征。早睡早起可保持正常内分泌，保护卵巢功能。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -156,17 +153,17 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
-        <rFont val="宋体-简"/>
-        <charset val="0"/>
-      </rPr>
-      <t>三、不良生活方式。慢性前列腺炎可能与不良生活方式有关，久坐压迫前列腺，就容易导致慢性前列腺炎。前列腺长期受压迫，容易造成血流不畅，酸性物质增多，血管通透性增加，白细胞穿过血管进入前列腺的组织里，最终导致慢性前列腺炎的发生。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>另外，这里还可以补充一下需要注意的内容。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -175,17 +172,17 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
-        <rFont val="宋体-简"/>
-        <charset val="0"/>
-      </rPr>
-      <t>另外，这里还可以补充一下需要注意的内容。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>多囊卵巢综合征可能会并发心血管疾病等，多囊卵巢综合征患者绝经时，糖尿病和心血管病的发病率，比正常妇女高六倍，子宫内膜癌和乳腺癌的发病率，比正常妇女高两倍。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -194,17 +191,17 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
-        <rFont val="宋体-简"/>
-        <charset val="0"/>
-      </rPr>
-      <t>规律性生活能预防慢性前列腺炎，保持相对稳定的性伴侣、尽量规律性生活、避免频繁手淫，使得前列腺液可以规律的自我更新，能有效预防慢性前列腺炎。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>多囊卵巢综合征易引发肿瘤。多囊卵巢综合征患者月经期异常，持续不排卵，导致子宫内膜持续生长，易引起子宫内膜增生，甚至发展成子宫内膜癌。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -213,39 +210,43 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
-        <rFont val="宋体-简"/>
-        <charset val="0"/>
-      </rPr>
-      <t>增强免疫力有助于预防慢性前列腺炎，不吸烟、不喝酒、不熬夜，养成健康规律的生活习惯；不焦虑、少愤怒、少忧伤，保持良好的心态；良好的生活习惯和心态能增强免疫力，有效预防慢性前列腺炎。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="0"/>
-      </rPr>
-      <t xml:space="preserve">
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>一旦确诊，应积极配合医生治疗，遵医嘱，按疗程，科学治，以免病情加重。</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">多囊卵巢综合征的患者孕前可通过规律运动、合理饮食和养成良好的生活习惯等方法进行调理。
+一、适当运动有助于改善多囊卵巢综合征，如散步、慢跑、游泳、健身操等运动，避免过激，建议每周坚持三次到五次运动。适当运动有助于帮助患者减轻体重，控制胰岛素抵抗的发展，改善月经不调以及不孕，有助于多囊卵巢综合征的治疗。
+二、多囊卵巢综合征患者需要注意合理饮食，饮食方面要做到合理安排，清淡为主，避免肥胖，控制体重，多吃蔬菜水果，比如:白菜、菠菜、芹菜、海带、豆腐、橙子、苹果、猕猴桃等。适当补充矿物质以及维生素丰富的食物，如核桃、大枣、贝类、海鲜等。合理饮食能提高抵抗力，可加快多囊卵巢综合征的好转。
+三、良好生活习惯能缓解多囊卵巢综合征，如保持规律作息和劳逸结合，避免过度熬夜；注意保持心情舒畅，尽量避免心情焦虑、抑郁、烦躁、压力过大等。身心健康有利于多囊卵巢综合征的恢复。
+另外，这里还可以补充一下需要注意的内容。
+多囊卵巢综合征可能会并发心血管疾病等，多囊卵巢综合征患者绝经时，糖尿病和心血管病的发病率，比正常妇女高六倍，子宫内膜癌和乳腺癌的发病率，比正常妇女高两倍。
+多囊卵巢综合征易引发肿瘤。多囊卵巢综合征患者月经期异常，持续不排卵，导致子宫内膜持续生长，易引起子宫内膜增生，甚至发展成子宫内膜癌。
+一旦确诊，应积极配合医生治疗，遵医嘱，按疗程，科学治，以免病情加重。
 </t>
-    </r>
-  </si>
-  <si>
-    <t>MXQLXY-YY-9</t>
-  </si>
-  <si>
-    <t>X-TT-BY</t>
-  </si>
-  <si>
-    <t>MXQLXY-YY-Q99</t>
+  </si>
+  <si>
+    <t>DNLCZHZ-HL-1</t>
+  </si>
+  <si>
+    <t>DNLCZHZ-HL-2</t>
+  </si>
+  <si>
+    <t>DNLCZHZ-HL-3</t>
   </si>
   <si>
     <t>X-GD-ZY</t>
   </si>
   <si>
-    <t>MXQLXY-YF-1</t>
-  </si>
-  <si>
-    <t>MXQLXY-YF-2</t>
+    <t>DNLCZHZ-WH-Q4</t>
+  </si>
+  <si>
+    <t>DNLCZHZ-WH-5</t>
+  </si>
+  <si>
+    <t>X-TT-WH</t>
   </si>
 </sst>
 </file>
@@ -254,11 +255,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -275,104 +276,75 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="微软雅黑"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="宋体-简"/>
-      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -386,6 +358,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -393,6 +404,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -400,41 +419,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
     </font>
   </fonts>
   <fills count="34">
@@ -452,187 +441,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -664,8 +653,56 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -685,6 +722,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -699,188 +747,129 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -889,22 +878,22 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -918,16 +907,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1252,7 +1239,7 @@
   <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="1"/>
@@ -1311,7 +1298,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" ht="266" spans="1:16">
+    <row r="2" ht="269" spans="1:15">
       <c r="A2" s="3" t="s">
         <v>15</v>
       </c>
@@ -1348,10 +1335,11 @@
       <c r="L2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="M2" s="3"/>
+      <c r="M2" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/扩增正文审核辅助工具-20240312/工作簿115.xlsx
+++ b/扩增正文审核辅助工具-20240312/工作簿115.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27700" windowHeight="12660"/>
+    <workbookView windowWidth="23600" windowHeight="12160"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -218,6 +218,7 @@
   </si>
   <si>
     <t xml:space="preserve">多囊卵巢综合征的患者孕前可通过规律运动、合理饮食和养成良好的生活习惯等方法进行调理。
+如发现以上症状，应及时去正规医院就医，以免耽误病情。
 一、适当运动有助于改善多囊卵巢综合征，如散步、慢跑、游泳、健身操等运动，避免过激，建议每周坚持三次到五次运动。适当运动有助于帮助患者减轻体重，控制胰岛素抵抗的发展，改善月经不调以及不孕，有助于多囊卵巢综合征的治疗。
 二、多囊卵巢综合征患者需要注意合理饮食，饮食方面要做到合理安排，清淡为主，避免肥胖，控制体重，多吃蔬菜水果，比如:白菜、菠菜、芹菜、海带、豆腐、橙子、苹果、猕猴桃等。适当补充矿物质以及维生素丰富的食物，如核桃、大枣、贝类、海鲜等。合理饮食能提高抵抗力，可加快多囊卵巢综合征的好转。
 三、良好生活习惯能缓解多囊卵巢综合征，如保持规律作息和劳逸结合，避免过度熬夜；注意保持心情舒畅，尽量避免心情焦虑、抑郁、烦躁、压力过大等。身心健康有利于多囊卵巢综合征的恢复。
@@ -254,9 +255,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -282,20 +283,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -308,6 +295,21 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -327,8 +329,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -342,25 +366,38 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -368,59 +405,23 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -441,187 +442,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -646,15 +647,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -677,32 +669,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -734,16 +720,31 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -752,148 +753,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1238,7 +1239,7 @@
   <sheetPr/>
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -1298,7 +1299,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" ht="269" spans="1:15">
+    <row r="2" ht="286" spans="1:15">
       <c r="A2" s="3" t="s">
         <v>15</v>
       </c>
